--- a/biology/Histoire de la zoologie et de la botanique/Suzette_Puech/Suzette_Puech.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Suzette_Puech/Suzette_Puech.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Suzette Puech, née le 7 mars 1937 à Anduze et morte le 20 décembre 2005 (à 68 ans) à Montpellier[1], est une botaniste française, spécialiste du genre Teucrium, qu'elle étudie notamment sur l'ensemble du littoral méditerranéen français, de la Camargue aux Pyrénées-Orientales[2]. Elle est en particulier l'autrice de Teucrium nablii et de Teucrium polium subsp. clapae (la Germandrée de la Clape).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suzette Puech, née le 7 mars 1937 à Anduze et morte le 20 décembre 2005 (à 68 ans) à Montpellier, est une botaniste française, spécialiste du genre Teucrium, qu'elle étudie notamment sur l'ensemble du littoral méditerranéen français, de la Camargue aux Pyrénées-Orientales. Elle est en particulier l'autrice de Teucrium nablii et de Teucrium polium subsp. clapae (la Germandrée de la Clape).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'abord assistante au laboratoire de systématique et géobotanique méditerranéenne de l'Institut botanique de Montpellier, elle est ensuite enseignante à l'université de Montpellier. L'herbier de plus de 2 000 planches qu'elle avait constitué, composé en majorité de Teucrium, est désormais conservé à l'Institut botanique de Montpellier[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'abord assistante au laboratoire de systématique et géobotanique méditerranéenne de l'Institut botanique de Montpellier, elle est ensuite enseignante à l'université de Montpellier. L'herbier de plus de 2 000 planches qu'elle avait constitué, composé en majorité de Teucrium, est désormais conservé à l'Institut botanique de Montpellier.
 </t>
         </is>
       </c>
